--- a/학습자료/단답형/객관식_국어_암기자료_1주차.xlsx
+++ b/학습자료/단답형/객관식_국어_암기자료_1주차.xlsx
@@ -450,8 +450,8 @@
         <is>
           <t>곡식이나 장작 따위의 더미를 세는 단위 한 [   ]는 20단
 1. 가리
-2. 10
-3. 30</t>
+2. 고희
+3. 환갑</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -465,8 +465,8 @@
         <is>
           <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위 한 [   ]은 굴비비웃 따위 열 마리, 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것
 1. 갓
-2. 연
-3. 치</t>
+2. 섬
+3. 문</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>오이나 가지 따위를 묶어 세는 단위 한 [   ]는 50개
-1. 지명
-2. 50
+1. 쌍
+2. 톳
 3. 거리</t>
         </is>
       </c>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>달걀 열 개를 묶어 세는 단위
-1. 꾸러미
-2. 88
-3. 죽</t>
+1. 손
+2. 거리
+3. 꾸러미</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 꾸러미</t>
+          <t>3, 꾸러미</t>
         </is>
       </c>
     </row>
@@ -509,8 +509,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>물건 열두 개를 묶어 세는 단위 ('타' X)
-1. 치
-2. 77
+1. 희수
+2. 거리
 3. 다스</t>
         </is>
       </c>
@@ -524,9 +524,9 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>짚, 땔나무, 채소 따위의 묶음을 세는 [   ]위
-1. 술
+1. 두름
 2. 단
-3. 축</t>
+3. 미수</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -540,8 +540,8 @@
         <is>
           <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위
 1. 두름
-2. 타
-3. 단</t>
+2. 70
+3. 문</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>이엉을 엮어서 말아 놓은 단을 세는 단위
-1. 50
-2. 마름
-3. 61</t>
+1. 연
+2. 77
+3. 마름</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 마름</t>
+          <t>3, 마름</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>논밭 넓이의 단위 한 [   ]는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도
-1. 마지기
-2. 88
-3. 갓</t>
+1. 마름
+2. 마지기
+3. 50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 마지기</t>
+          <t>2, 마지기</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>신발의 크기를 잴 때 쓰는 단위 1[   ]은 약 24cm
-1. 문
-2. 약관
-3. 지학</t>
+1. 자
+2. 마지기
+3. 문</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 문</t>
+          <t>3, 문</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>생선이나 미역을 묶어 세는 단위 한 [   ]은 생선 열 마리, 미역 열 장
-1. 손
-2. 뭇
-3. 마지기</t>
+1. 거리
+2. 이순
+3. 뭇</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 뭇</t>
+          <t>3, 뭇</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>①길이의 단위 한 [   ]은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른
-1. 15
-2. 발
-3. 희수</t>
+1. 발
+2. 타
+3. 10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 발</t>
+          <t>1, 발</t>
         </is>
       </c>
     </row>
@@ -629,8 +629,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위
-1. 타
-2. 희수
+1. 우리
+2. 톳
 3. 벌</t>
         </is>
       </c>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>국수, 새끼, 실 따위의 뭉치를 세는 단위
-1. 쌍
-2. 사리
-3. 단</t>
+1. 사리
+2. 70
+3. 이립</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 사리</t>
+          <t>1, 사리</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 [   ]은 한 말의 열 배로 약 180리터에 해당
-1. 꾸러미
-2. 섬
-3. 마름</t>
+1. 죽
+2. 손
+3. 섬</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 섬</t>
+          <t>3, 섬</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         <is>
           <t>①한 [   ]에 잡을 만한 분량을 세는 단위 조기, 고등어, 배 추 따위 한 [   ]은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
 ② 미나리나 파 따위 한 [   ]은 한 줌 분량을 이름
-1. 이립
-2. 죽
-3. 손</t>
+1. 쌈
+2. 손
+3. 이립</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 손</t>
+          <t>2, 손</t>
         </is>
       </c>
     </row>
@@ -690,14 +690,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위
-1. 99
-2. 죽
-3. 술</t>
+1. 술
+2. 접
+3. 거리</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 술</t>
+          <t>1, 술</t>
         </is>
       </c>
     </row>
@@ -707,14 +707,14 @@
           <t>① 바늘을 세는 단위 24개 
 ② 옷감, 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
 ③ 금의 무게를 나타내는 단위 한 [   ]은 금 백 냥쭝
-1. 쌈
-2. 88
-3. 단</t>
+1. 70
+2. 접
+3. 쌈</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 쌈</t>
+          <t>3, 쌈</t>
         </is>
       </c>
     </row>
@@ -722,14 +722,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>둘을 하나로 묶어 세는 단위
-1. 타
-2. 쌍
-3. 50</t>
+1. 쾌
+2. 제
+3. 쌍</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 쌍</t>
+          <t>3, 쌍</t>
         </is>
       </c>
     </row>
@@ -737,14 +737,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>물건 열두 개를 한 단위로 세는 말('다스' X)
-1. 고희
-2. 50
-3. 타</t>
+1. 타
+2. 쾌
+3. 술</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 타</t>
+          <t>1, 타</t>
         </is>
       </c>
     </row>
@@ -752,14 +752,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위
-1. 마름
-2. 아름
-3. 지명</t>
+1. 아름
+2. 쌍
+3. 우리</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 아름</t>
+          <t>1, 아름</t>
         </is>
       </c>
     </row>
@@ -767,14 +767,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>종이를 세는 단위 1[   ]은 500장
-1. 타
-2. 연
-3. 희수</t>
+1. 갓
+2. 쌍
+3. 연</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 연</t>
+          <t>3, 연</t>
         </is>
       </c>
     </row>
@@ -782,14 +782,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>기와를 세는 단위 한 [   ]는기와 2천 장
-1. 우리
-2. 희수
-3. 쌈</t>
+1. 톳
+2. 다스
+3. 우리</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 우리</t>
+          <t>3, 우리</t>
         </is>
       </c>
     </row>
@@ -798,8 +798,8 @@
         <is>
           <t>길이의 단위 한 [   ]는 한 치의 열 배로 약 30.3cm에 해당 [비슷한 말] 척6(尺)
 1. 자
-2. 치
-3. 쌍</t>
+2. 뭇
+3. 타</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -812,9 +812,9 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>채소나 과일 따위를 묶어 세는 단위 한 [   ]은 채소나 과일 백 개를 이름
-1. 꾸러미
+1. 갓
 2. 접
-3. 치</t>
+3. 죽</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -828,8 +828,8 @@
         <is>
           <t>한약의 분량을 나타내는 단위 한 [   ]는 탕약스무 첩
 1. 제
-2. 60
-3. 가리</t>
+2. 축
+3. 이순</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -842,14 +842,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>옷, 그릇 따위의 열 벌을 묶어 이른 말
-1. 죽
-2. 약관
-3. 15</t>
+1. 발
+2. 죽
+3. 회갑</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 죽</t>
+          <t>2, 죽</t>
         </is>
       </c>
     </row>
@@ -857,14 +857,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>오징어를 묶어 세는 단위 한 [   ]은 오징어 스무 마리를 이름
-1. 축
-2. 마지기
-3. 40</t>
+1. 불혹
+2. 이순
+3. 축</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1, 축</t>
+          <t>3, 축</t>
         </is>
       </c>
     </row>
@@ -873,8 +873,8 @@
         <is>
           <t>길이의 단위 한 [   ]는 한 자의 10분의 1 또는 약 30.3cm에 해당한다
 cf 촌(寸)
-1. 70
-2. 30
+1. 꾸러미
+2. 마름
 3. 치</t>
         </is>
       </c>
@@ -888,9 +888,9 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>쾌(북어를 묶어 세는 단위 한 쾌는 북어 20마리)의 방언
-1. 축
+1. 두름
 2. 코
-3. 죽</t>
+3. 꾸러미</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -903,8 +903,8 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>북어 20마리를 묶은 단위
-1. 회갑
-2. 20
+1. 다스
+2. 발
 3. 쾌</t>
         </is>
       </c>
@@ -918,14 +918,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>김을 세는 단위 100장
-1. 환갑
-2. 마지기
-3. 톳</t>
+1. 거리
+2. 톳
+3. 지학</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3, 톳</t>
+          <t>2, 톳</t>
         </is>
       </c>
     </row>
@@ -933,14 +933,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>沖年(읽는 법)
-1. 충년
-2. 지학
-3. 이립</t>
+1. 치
+2. 꾸러미
+3. 충년</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 충년</t>
+          <t>3, 충년</t>
         </is>
       </c>
     </row>
@@ -948,9 +948,9 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>志學(읽는 법)
-1. 마름
+1. 섬
 2. 지학
-3. 60</t>
+3. 마름</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -963,14 +963,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>弱冠(읽는 법)
-1. 88
-2. 약관
-3. 30</t>
+1. 문
+2. 술
+3. 약관</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2, 약관</t>
+          <t>3, 약관</t>
         </is>
       </c>
     </row>
@@ -978,14 +978,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>而立(읽는 법)
-1. 이립
-2. 섬
-3. 고희</t>
+1. 축
+2. 이립
+3. 우리</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1, 이립</t>
+          <t>2, 이립</t>
         </is>
       </c>
     </row>
@@ -993,14 +993,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>不惑(읽는 법)
-1. 다스
-2. 불혹
-3. 50</t>
+1. 불혹
+2. 61
+3. 쾌</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 불혹</t>
+          <t>1, 불혹</t>
         </is>
       </c>
     </row>
@@ -1008,8 +1008,8 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>知命(읽는 법)
-1. 30
-2. 뭇
+1. 15
+2. 희수
 3. 지명</t>
         </is>
       </c>
@@ -1024,8 +1024,8 @@
         <is>
           <t>耳順(읽는 법)
 1. 이순
-2. 61
-3. 아름</t>
+2. 회갑
+3. 백수</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1038,14 +1038,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>換甲(읽는 법)
-1. 죽
-2. 환갑
-3. 접</t>
+1. 환갑
+2. 20
+3. 70</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2, 환갑</t>
+          <t>1, 환갑</t>
         </is>
       </c>
     </row>
@@ -1054,8 +1054,8 @@
         <is>
           <t>還甲(읽는 법)
 1. 환갑
-2. 77
-3. 61</t>
+2. 61
+3. 죽</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1068,14 +1068,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>回甲(읽는 법)
-1. 회갑
-2. 죽
-3. 희수</t>
+1. 70
+2. 회갑
+3. 마름</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1, 회갑</t>
+          <t>2, 회갑</t>
         </is>
       </c>
     </row>
@@ -1083,14 +1083,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>古稀(읽는 법)
-1. 타
-2. 갓
-3. 고희</t>
+1. 섬
+2. 고희
+3. 타</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3, 고희</t>
+          <t>2, 고희</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>喜壽(읽는 법)
-1. 희수
-2. 99
-3. 쾌</t>
+1. 자
+2. 희수
+3. 꾸러미</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1, 희수</t>
+          <t>2, 희수</t>
         </is>
       </c>
     </row>
@@ -1113,14 +1113,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>米壽(읽는 법)
-1. 88
-2. 50
-3. 미수</t>
+1. 마름
+2. 미수
+3. 가리</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3, 미수</t>
+          <t>2, 미수</t>
         </is>
       </c>
     </row>
@@ -1128,9 +1128,9 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>白壽(읽는 법)
-1. 희수
+1. 이립
 2. 백수
-3. 연</t>
+3. 제</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1143,14 +1143,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>沖年(00살)
-1. 꾸러미
-2. 술
-3. 10</t>
+1. 마름
+2. 10
+3. 미수</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 10</t>
+          <t>2, 10</t>
         </is>
       </c>
     </row>
@@ -1158,14 +1158,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>志學(00살)
-1. 환갑
-2. 15
-3. 70</t>
+1. 불혹
+2. 문
+3. 15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2, 15</t>
+          <t>3, 15</t>
         </is>
       </c>
     </row>
@@ -1173,14 +1173,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>弱冠(00살)
-1. 20
-2. 희수
-3. 환갑</t>
+1. 벌
+2. 미수
+3. 20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1, 20</t>
+          <t>3, 20</t>
         </is>
       </c>
     </row>
@@ -1188,14 +1188,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>而立(00살)
-1. 쌍
-2. 백수
-3. 30</t>
+1. 코
+2. 30
+3. 죽</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3, 30</t>
+          <t>2, 30</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1203,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>不惑(00살)
-1. 40
-2. 가리
-3. 미수</t>
+1. 뭇
+2. 60
+3. 40</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1, 40</t>
+          <t>3, 40</t>
         </is>
       </c>
     </row>
@@ -1218,14 +1218,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>知命(00살)
-1. 우리
-2. 50
-3. 톳</t>
+1. 50
+2. 타
+3. 문</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2, 50</t>
+          <t>1, 50</t>
         </is>
       </c>
     </row>
@@ -1233,14 +1233,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>耳順(00살)
-1. 술
-2. 뭇
-3. 60</t>
+1. 60
+2. 고희
+3. 충년</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3, 60</t>
+          <t>1, 60</t>
         </is>
       </c>
     </row>
@@ -1248,14 +1248,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>換甲(00살)
-1. 치
-2. 갓
-3. 61</t>
+1. 미수
+2. 61
+3. 지학</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3, 61</t>
+          <t>2, 61</t>
         </is>
       </c>
     </row>
@@ -1263,9 +1263,9 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>還甲(00살)
-1. 치
+1. 사리
 2. 61
-3. 15</t>
+3. 벌</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1278,9 +1278,9 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>回甲(00살)
-1. 50
+1. 아름
 2. 61
-3. 희수</t>
+3. 섬</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1293,9 +1293,9 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>古稀(00살)
-1. 타
+1. 88
 2. 70
-3. 우리</t>
+3. 단</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1308,14 +1308,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>喜壽(00살)
-1. 77
-2. 거리
-3. 약관</t>
+1. 거리
+2. 60
+3. 77</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1, 77</t>
+          <t>3, 77</t>
         </is>
       </c>
     </row>
@@ -1324,8 +1324,8 @@
         <is>
           <t>米壽(00살)
 1. 88
-2. 뭇
-3. 77</t>
+2. 접
+3. 톳</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1338,14 +1338,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>白壽(00살)
-1. 99
-2. 61
-3. 가리</t>
+1. 이순
+2. 99
+3. 불혹</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 99</t>
+          <t>2, 99</t>
         </is>
       </c>
     </row>
